--- a/network node codebook n2.xlsx
+++ b/network node codebook n2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\projects\Jovan model\model2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C754B29-E58F-457A-8607-E02C81B517E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D405B62-A78D-4428-A4E9-9A4CB7FC1F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="555" activeTab="1" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
+    <workbookView xWindow="-21360" yWindow="624" windowWidth="18240" windowHeight="11124" tabRatio="555" activeTab="4" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Descritives" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDDC956-7FB6-499A-B173-13A92D89371D}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9291,8 +9291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6818038B-B2D2-4E56-B9DD-09D4F8560F2F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/network node codebook n2.xlsx
+++ b/network node codebook n2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\projects\Jovan model\model2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D405B62-A78D-4428-A4E9-9A4CB7FC1F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325597B-5A49-4FCB-AC63-49E3AC566B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21360" yWindow="624" windowWidth="18240" windowHeight="11124" tabRatio="555" activeTab="4" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
+    <workbookView xWindow="-21360" yWindow="624" windowWidth="18240" windowHeight="11124" tabRatio="555" activeTab="1" xr2:uid="{224008B3-F38F-4A41-ABB6-2F0E463A12FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Descritives" sheetId="1" r:id="rId1"/>
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDDC956-7FB6-499A-B173-13A92D89371D}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="G20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3160,10 +3160,10 @@
         <v>1</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -9291,7 +9291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6818038B-B2D2-4E56-B9DD-09D4F8560F2F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
